--- a/Data/EC/NIT-9007699167.xlsx
+++ b/Data/EC/NIT-9007699167.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8605C673-0F88-471F-9BD3-6632DF66C3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B4DB834-D169-480F-98DD-022E533FC5A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{C877621F-CCC6-499F-9549-200A5D9A4F36}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{7C0EF292-387C-4B43-B7B0-B5BAB107713E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="69">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,154 +71,145 @@
     <t>JULIO CESAR MEZA AHUMADA</t>
   </si>
   <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
     <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1902</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1047457297</t>
-  </si>
-  <si>
-    <t>KATHERINE TATIANA DONCEL MANRIQUE</t>
-  </si>
-  <si>
-    <t>1612</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -317,7 +308,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -330,9 +323,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -532,23 +523,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -576,10 +567,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -632,7 +623,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18C347A0-F9CD-CD8E-4E4C-7C996EDC0771}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8245E15-8E11-F3B6-87CB-479B92AF3715}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -983,8 +974,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5409E8C-CCC9-4A9B-BC21-44D8E88C4CAF}">
-  <dimension ref="B2:J69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB16F791-62AA-48A1-B905-8DBB45BA696D}">
+  <dimension ref="B2:J68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -995,7 +986,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.6328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1008,7 +999,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1053,7 +1044,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1085,12 +1076,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1445523</v>
+        <v>1433572</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1101,17 +1092,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F13" s="5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1138,13 +1129,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1161,10 +1152,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>23958</v>
+        <v>29509</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1184,10 +1175,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G17" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1207,10 +1198,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G18" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1230,10 +1221,10 @@
         <v>14</v>
       </c>
       <c r="F19" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G19" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1253,10 +1244,10 @@
         <v>15</v>
       </c>
       <c r="F20" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G20" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1276,10 +1267,10 @@
         <v>16</v>
       </c>
       <c r="F21" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G21" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1299,10 +1290,10 @@
         <v>17</v>
       </c>
       <c r="F22" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G22" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1322,10 +1313,10 @@
         <v>18</v>
       </c>
       <c r="F23" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G23" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1345,10 +1336,10 @@
         <v>19</v>
       </c>
       <c r="F24" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G24" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1368,10 +1359,10 @@
         <v>20</v>
       </c>
       <c r="F25" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G25" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
@@ -1391,10 +1382,10 @@
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G26" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1414,10 +1405,10 @@
         <v>22</v>
       </c>
       <c r="F27" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G27" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19"/>
@@ -1437,10 +1428,10 @@
         <v>23</v>
       </c>
       <c r="F28" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G28" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1460,10 +1451,10 @@
         <v>24</v>
       </c>
       <c r="F29" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G29" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
@@ -1483,10 +1474,10 @@
         <v>25</v>
       </c>
       <c r="F30" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G30" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1506,10 +1497,10 @@
         <v>26</v>
       </c>
       <c r="F31" s="18">
-        <v>31249</v>
+        <v>29509</v>
       </c>
       <c r="G31" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
@@ -1532,7 +1523,7 @@
         <v>31249</v>
       </c>
       <c r="G32" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1555,7 +1546,7 @@
         <v>31249</v>
       </c>
       <c r="G33" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
@@ -1578,7 +1569,7 @@
         <v>31249</v>
       </c>
       <c r="G34" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1601,7 +1592,7 @@
         <v>31249</v>
       </c>
       <c r="G35" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
@@ -1624,7 +1615,7 @@
         <v>31249</v>
       </c>
       <c r="G36" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1647,7 +1638,7 @@
         <v>31249</v>
       </c>
       <c r="G37" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1670,7 +1661,7 @@
         <v>31249</v>
       </c>
       <c r="G38" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1693,7 +1684,7 @@
         <v>31249</v>
       </c>
       <c r="G39" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1716,7 +1707,7 @@
         <v>31249</v>
       </c>
       <c r="G40" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1739,7 +1730,7 @@
         <v>31249</v>
       </c>
       <c r="G41" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1762,7 +1753,7 @@
         <v>31249</v>
       </c>
       <c r="G42" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1785,7 +1776,7 @@
         <v>31249</v>
       </c>
       <c r="G43" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1808,7 +1799,7 @@
         <v>31249</v>
       </c>
       <c r="G44" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1831,7 +1822,7 @@
         <v>31249</v>
       </c>
       <c r="G45" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1854,7 +1845,7 @@
         <v>31249</v>
       </c>
       <c r="G46" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1874,10 +1865,10 @@
         <v>42</v>
       </c>
       <c r="F47" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G47" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1897,10 +1888,10 @@
         <v>43</v>
       </c>
       <c r="F48" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G48" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1920,10 +1911,10 @@
         <v>44</v>
       </c>
       <c r="F49" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G49" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1943,10 +1934,10 @@
         <v>45</v>
       </c>
       <c r="F50" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G50" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
@@ -1966,10 +1957,10 @@
         <v>46</v>
       </c>
       <c r="F51" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G51" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1989,10 +1980,10 @@
         <v>47</v>
       </c>
       <c r="F52" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G52" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H52" s="19"/>
       <c r="I52" s="19"/>
@@ -2012,10 +2003,10 @@
         <v>48</v>
       </c>
       <c r="F53" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G53" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2035,10 +2026,10 @@
         <v>49</v>
       </c>
       <c r="F54" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G54" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2058,10 +2049,10 @@
         <v>50</v>
       </c>
       <c r="F55" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G55" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2081,10 +2072,10 @@
         <v>51</v>
       </c>
       <c r="F56" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G56" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H56" s="19"/>
       <c r="I56" s="19"/>
@@ -2104,10 +2095,10 @@
         <v>52</v>
       </c>
       <c r="F57" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G57" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H57" s="19"/>
       <c r="I57" s="19"/>
@@ -2127,10 +2118,10 @@
         <v>53</v>
       </c>
       <c r="F58" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G58" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
@@ -2150,10 +2141,10 @@
         <v>54</v>
       </c>
       <c r="F59" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G59" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2173,10 +2164,10 @@
         <v>55</v>
       </c>
       <c r="F60" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G60" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2196,89 +2187,66 @@
         <v>56</v>
       </c>
       <c r="F61" s="18">
-        <v>29509</v>
+        <v>31249</v>
       </c>
       <c r="G61" s="18">
-        <v>737717</v>
+        <v>781242</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B62" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E62" s="16" t="s">
+      <c r="B62" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F62" s="18">
-        <v>29509</v>
-      </c>
-      <c r="G62" s="18">
-        <v>737717</v>
-      </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="20"/>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B63" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D63" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E63" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="F63" s="24">
-        <v>11951</v>
-      </c>
-      <c r="G63" s="24">
-        <v>689454</v>
-      </c>
-      <c r="H63" s="25"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="26"/>
+      <c r="F62" s="24">
+        <v>23958</v>
+      </c>
+      <c r="G62" s="24">
+        <v>781242</v>
+      </c>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="26"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B67" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="32"/>
+      <c r="H67" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C68" s="32"/>
       <c r="H68" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I68" s="1"/>
       <c r="J68" s="1"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B69" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" s="32"/>
-      <c r="H69" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B69:C69"/>
     <mergeCell ref="B68:C68"/>
-    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="B67:C67"/>
     <mergeCell ref="H68:J68"/>
+    <mergeCell ref="H67:J67"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
